--- a/biology/Zoologie/Hocco_à_face_nue/Hocco_à_face_nue.xlsx
+++ b/biology/Zoologie/Hocco_à_face_nue/Hocco_à_face_nue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hocco_%C3%A0_face_nue</t>
+          <t>Hocco_à_face_nue</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Crax fasciolata
 L’Hocco à face nue (Crax fasciolata) est une espèce d'oiseau de la famille des Cracidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hocco_%C3%A0_face_nue</t>
+          <t>Hocco_à_face_nue</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il présente un dimorphisme sexuel notable. Le plumage des femelles est gris foncé barré de blanc et le ventre jaune clair tandis que le plumage des mâles est noir avec le ventre et le bout de la queue blancs, la cire et la base du bec sont jaunes avec une petite bosse. la peau autour de l'œil est noire.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hocco_%C3%A0_face_nue</t>
+          <t>Hocco_à_face_nue</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils se nourrissent en couples ou seuls, sur le sol, de graines, de fruits, de fleurs et de feuilles.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hocco_%C3%A0_face_nue</t>
+          <t>Hocco_à_face_nue</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils nichent dans les branches des arbres à environ 4 m de hauteur, la femelle pond 2 œufs qu'elle couve pendant 30 jours.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hocco_%C3%A0_face_nue</t>
+          <t>Hocco_à_face_nue</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">On le trouve dans les parties centrale de l'est et du sud du Brésil, au Paraguay, dans l'Est de la Bolivie et l'extrême nord-est de l'Argentine.
 </t>
@@ -618,7 +638,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Hocco_%C3%A0_face_nue</t>
+          <t>Hocco_à_face_nue</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,7 +656,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Son habitat naturel est les forêts sèches et les forêts humides de montagne subtropicales et tropicales.
 </t>
